--- a/data/agenda.xlsx
+++ b/data/agenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layton\C-Users-layton-docs\workshops\workshop-reproducible-research\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layton\C-Users-layton-docs\workshops\creating-reproducible-reports\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>notes</t>
   </si>
@@ -170,12 +170,6 @@
     <t>Identifying manual operations</t>
   </si>
   <si>
-    <t>Using R for computing</t>
-  </si>
-  <si>
-    <t>Creating a dynamic document</t>
-  </si>
-  <si>
     <t>Submitting questions</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>Assessing the workshop</t>
   </si>
   <si>
-    <t>Continuing the tutorials</t>
-  </si>
-  <si>
     <t>Looking ahead</t>
   </si>
   <si>
@@ -246,6 +237,9 @@
   </si>
   <si>
     <t>*break*</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
   </si>
 </sst>
 </file>
@@ -599,7 +593,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +654,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
@@ -684,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>35</v>
@@ -708,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
@@ -732,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>1</v>
@@ -756,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
@@ -777,10 +771,10 @@
         <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>36</v>
@@ -798,7 +792,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8"/>
       <c r="G9" s="5" t="s">
@@ -814,13 +808,13 @@
         <v>115</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>37</v>
@@ -838,7 +832,7 @@
         <v>130</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8"/>
       <c r="G11" s="5" t="s">
@@ -854,13 +848,13 @@
         <v>170</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>13</v>
@@ -878,13 +872,13 @@
         <v>180</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>17</v>
@@ -913,13 +907,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>18</v>
@@ -937,13 +931,13 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>16</v>
@@ -961,13 +955,13 @@
         <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>15</v>
@@ -982,13 +976,13 @@
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1000,7 +994,7 @@
         <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" s="8"/>
     </row>
@@ -1013,13 +1007,13 @@
         <v>75</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>19</v>
@@ -1034,13 +1028,13 @@
         <v>115</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>20</v>
@@ -1055,7 +1049,7 @@
         <v>130</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -1068,13 +1062,13 @@
         <v>150</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1086,13 +1080,13 @@
         <v>160</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>21</v>
@@ -1107,16 +1101,16 @@
         <v>170</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1128,13 +1122,13 @@
         <v>180</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/agenda.xlsx
+++ b/data/agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>notes</t>
   </si>
@@ -239,7 +239,10 @@
     <t>*break*</t>
   </si>
   <si>
-    <t>Tutorial</t>
+    <t>Creating a dynamic report</t>
+  </si>
+  <si>
+    <t>Continue the tutorials</t>
   </si>
 </sst>
 </file>
@@ -848,7 +851,7 @@
         <v>170</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>65</v>
@@ -931,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>65</v>
